--- a/Config/script_Check.xlsx
+++ b/Config/script_Check.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B0BDA-4034-4A4D-890E-EBE74A4FDDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B9E714-05E1-49F8-8DB5-4D0C880AF71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19200" windowHeight="9020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -414,7 +427,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Config/script_Check.xlsx
+++ b/Config/script_Check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B9E714-05E1-49F8-8DB5-4D0C880AF71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A1C573-5C4E-499F-89D2-2AED6255B062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="1950" windowWidth="19875" windowHeight="8715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
     <t>JIRA ID</t>
   </si>
   <si>
-    <t>https://jira.jnj.com/browse/AGQP-279</t>
+    <t>https://jira.com/browse/qw123</t>
   </si>
   <si>
-    <t>https://jira.jnj.com/browse/JCVZ-1030</t>
+    <t>https://jira.com/browse/qw234</t>
   </si>
 </sst>
 </file>
@@ -427,25 +427,25 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
